--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29042675321342676</v>
+        <v>0.29328871143405649</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29179388393174738</v>
+        <v>0.27215234502135699</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-5.0449069207052609e-05</v>
+        <v>-0.0071090337353409243</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00016388956037495154</v>
+        <v>-0.00026249558081409242</v>
       </c>
       <c r="F3" s="0">
-        <v>4.2933496196471786e-05</v>
+        <v>-0.00061018423320846268</v>
       </c>
       <c r="G3" s="0">
-        <v>5.6720122833876573e-05</v>
+        <v>-5.7103168242181754e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>3.5212188542384993e-06</v>
+        <v>4.3138063093529783e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>2.3104534029665745e-05</v>
+        <v>0.00010269618483452572</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.1315230432649166e-06</v>
+        <v>-0.00075254079441278154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30117885677559136</v>
+        <v>0.27104618743504338</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0039570045334323661</v>
+        <v>0.0072919155702978128</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.0227201538969059e-07</v>
+        <v>-3.1831625818472752e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.4273278759276291e-05</v>
+        <v>2.8873158965349093e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-7.9255177114866629e-06</v>
+        <v>0.00018805451063787175</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0002055205700083811</v>
+        <v>0.001078893511111465</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00038476447686627683</v>
+        <v>0.0032832537331982667</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0001684565088152512</v>
+        <v>-0.00045499663799208889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30311286943852273</v>
+        <v>0.26853968254946192</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00090447484183618654</v>
+        <v>-0.0028897890711798969</v>
       </c>
       <c r="E5" s="0">
-        <v>-9.1052164572461803e-06</v>
+        <v>-0.0012439970079573212</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00048510542637769796</v>
+        <v>0.0019282838410574232</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0001244538704107935</v>
+        <v>-0.00029522921118385815</v>
       </c>
       <c r="H5" s="0">
-        <v>-4.3181265796092376e-05</v>
+        <v>0.00016828159468994835</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00026363889614856162</v>
+        <v>8.6867222492344068e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00050831187149924517</v>
+        <v>-0.00068087043220849131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30044813727921388</v>
+        <v>0.28280393142213317</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0004217538113409743</v>
+        <v>0.0040163897859775109</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.060016323762317e-05</v>
+        <v>2.4451768688071779e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.6258440941497008e-05</v>
+        <v>0.00025123002926168673</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.8246446363832394e-05</v>
+        <v>0.0001825209513753712</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00059250430013019846</v>
+        <v>-0.0022455531354701611</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00072185665585844383</v>
+        <v>-9.0050090862436871e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29697448531788001</v>
+        <v>0.2748323240734078</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0012464242430699319</v>
+        <v>-0.0059463590309762736</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00043490087098494443</v>
+        <v>-0.00038346449504043597</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00054054753438615355</v>
+        <v>0.002504659806467753</v>
       </c>
       <c r="G7" s="0">
-        <v>-3.3975500286725234e-05</v>
+        <v>0.0036014194288186349</v>
       </c>
       <c r="H7" s="0">
-        <v>7.2971336255711436e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>8.8571858278332712e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00080735611790544448</v>
+        <v>-0.0013988455049508963</v>
       </c>
     </row>
     <row r="8">
